--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Selp</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H2">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I2">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J2">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.2927159299736</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N2">
-        <v>13.2927159299736</v>
+        <v>91.433426</v>
       </c>
       <c r="O2">
-        <v>0.9775852961207312</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P2">
-        <v>0.9775852961207312</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q2">
-        <v>153.4213344086693</v>
+        <v>472.4678128515006</v>
       </c>
       <c r="R2">
-        <v>153.4213344086693</v>
+        <v>4252.210315663506</v>
       </c>
       <c r="S2">
-        <v>0.01298749153491424</v>
+        <v>0.01666751744987733</v>
       </c>
       <c r="T2">
-        <v>0.01298749153491424</v>
+        <v>0.01807087438618132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5417598041587</v>
+        <v>15.502027</v>
       </c>
       <c r="H3">
-        <v>11.5417598041587</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I3">
-        <v>0.01328527708676818</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J3">
-        <v>0.01328527708676818</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.304783932925277</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N3">
-        <v>0.304783932925277</v>
+        <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.02241470387926884</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P3">
-        <v>0.02241470387926884</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q3">
-        <v>3.517742945990363</v>
+        <v>0.6884811904663333</v>
       </c>
       <c r="R3">
-        <v>3.517742945990363</v>
+        <v>6.196330714196999</v>
       </c>
       <c r="S3">
-        <v>0.0002977855518539442</v>
+        <v>2.4287945006778E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002977855518539442</v>
+        <v>2.633291998258537E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>647.188220337169</v>
+        <v>15.502027</v>
       </c>
       <c r="H4">
-        <v>647.188220337169</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I4">
-        <v>0.7449535409126804</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J4">
-        <v>0.7449535409126804</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.2927159299736</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>13.2927159299736</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.9775852961207312</v>
+        <v>0.0001836691179428336</v>
       </c>
       <c r="P4">
-        <v>0.9775852961207312</v>
+        <v>0.0001838564375694463</v>
       </c>
       <c r="Q4">
-        <v>8602.889166167151</v>
+        <v>0.08820653362999999</v>
       </c>
       <c r="R4">
-        <v>8602.889166167151</v>
+        <v>0.7938588026699999</v>
       </c>
       <c r="S4">
-        <v>0.7282556278893099</v>
+        <v>3.111712371681293E-06</v>
       </c>
       <c r="T4">
-        <v>0.7282556278893099</v>
+        <v>3.373709585946337E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>647.188220337169</v>
+        <v>15.502027</v>
       </c>
       <c r="H5">
-        <v>647.188220337169</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I5">
-        <v>0.7449535409126804</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J5">
-        <v>0.7449535409126804</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.304783932925277</v>
+        <v>0.3570223333333333</v>
       </c>
       <c r="N5">
-        <v>0.304783932925277</v>
+        <v>1.071067</v>
       </c>
       <c r="O5">
-        <v>0.02241470387926884</v>
+        <v>0.0115244247889676</v>
       </c>
       <c r="P5">
-        <v>0.02241470387926884</v>
+        <v>0.01153617826702954</v>
       </c>
       <c r="Q5">
-        <v>197.2525711372731</v>
+        <v>5.534569850936332</v>
       </c>
       <c r="R5">
-        <v>197.2525711372731</v>
+        <v>49.81112865842699</v>
       </c>
       <c r="S5">
-        <v>0.01669791302337052</v>
+        <v>0.0001952461883303789</v>
       </c>
       <c r="T5">
-        <v>0.01669791302337052</v>
+        <v>0.0002116853547211943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.321253301182145</v>
+        <v>15.502027</v>
       </c>
       <c r="H6">
-        <v>0.321253301182145</v>
+        <v>46.50608099999999</v>
       </c>
       <c r="I6">
-        <v>0.0003697823550015289</v>
+        <v>0.01694194650975459</v>
       </c>
       <c r="J6">
-        <v>0.0003697823550015289</v>
+        <v>0.01834969517818498</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>13.2927159299736</v>
+        <v>0.0946895</v>
       </c>
       <c r="N6">
-        <v>13.2927159299736</v>
+        <v>0.189379</v>
       </c>
       <c r="O6">
-        <v>0.9775852961207312</v>
+        <v>0.003056509128901219</v>
       </c>
       <c r="P6">
-        <v>0.9775852961207312</v>
+        <v>0.002039750925041838</v>
       </c>
       <c r="Q6">
-        <v>4.270328874180506</v>
+        <v>1.4678791856165</v>
       </c>
       <c r="R6">
-        <v>4.270328874180506</v>
+        <v>8.807275113698999</v>
       </c>
       <c r="S6">
-        <v>0.0003614937930143909</v>
+        <v>5.178321416842106E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003614937930143909</v>
+        <v>3.742880771393857E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.321253301182145</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H7">
-        <v>0.321253301182145</v>
+        <v>2063.880676</v>
       </c>
       <c r="I7">
-        <v>0.0003697823550015289</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J7">
-        <v>0.0003697823550015289</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.304783932925277</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N7">
-        <v>0.304783932925277</v>
+        <v>91.433426</v>
       </c>
       <c r="O7">
-        <v>0.02241470387926884</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P7">
-        <v>0.02241470387926884</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q7">
-        <v>0.09791284459952269</v>
+        <v>20967.52011798622</v>
       </c>
       <c r="R7">
-        <v>0.09791284459952269</v>
+        <v>188707.6810618759</v>
       </c>
       <c r="S7">
-        <v>8.288561987137937E-06</v>
+        <v>0.7396832079162856</v>
       </c>
       <c r="T7">
-        <v>8.288561987137937E-06</v>
+        <v>0.8019624023805185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>209.711964252028</v>
+        <v>687.9602253333333</v>
       </c>
       <c r="H8">
-        <v>209.711964252028</v>
+        <v>2063.880676</v>
       </c>
       <c r="I8">
-        <v>0.2413913996455498</v>
+        <v>0.751862020265869</v>
       </c>
       <c r="J8">
-        <v>0.2413913996455498</v>
+        <v>0.8143361142115235</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.2927159299736</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N8">
-        <v>13.2927159299736</v>
+        <v>0.133237</v>
       </c>
       <c r="O8">
-        <v>0.9775852961207312</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P8">
-        <v>0.9775852961207312</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q8">
-        <v>2787.641567918987</v>
+        <v>30.55391884757911</v>
       </c>
       <c r="R8">
-        <v>2787.641567918987</v>
+        <v>274.9852696282119</v>
       </c>
       <c r="S8">
-        <v>0.2359806829034926</v>
+        <v>0.001077868082654391</v>
       </c>
       <c r="T8">
-        <v>0.2359806829034926</v>
+        <v>0.00116862146897977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>687.9602253333333</v>
+      </c>
+      <c r="H9">
+        <v>2063.880676</v>
+      </c>
+      <c r="I9">
+        <v>0.751862020265869</v>
+      </c>
+      <c r="J9">
+        <v>0.8143361142115235</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.00569</v>
+      </c>
+      <c r="N9">
+        <v>0.01707</v>
+      </c>
+      <c r="O9">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P9">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q9">
+        <v>3.914493682146666</v>
+      </c>
+      <c r="R9">
+        <v>35.23044313931999</v>
+      </c>
+      <c r="S9">
+        <v>0.000138093834076949</v>
+      </c>
+      <c r="T9">
+        <v>0.0001497209369430765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>687.9602253333333</v>
+      </c>
+      <c r="H10">
+        <v>2063.880676</v>
+      </c>
+      <c r="I10">
+        <v>0.751862020265869</v>
+      </c>
+      <c r="J10">
+        <v>0.8143361142115235</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.071067</v>
+      </c>
+      <c r="O10">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P10">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q10">
+        <v>245.6171648890324</v>
+      </c>
+      <c r="R10">
+        <v>2210.554484001292</v>
+      </c>
+      <c r="S10">
+        <v>0.008664777304235241</v>
+      </c>
+      <c r="T10">
+        <v>0.009394326582824261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>209.711964252028</v>
-      </c>
-      <c r="H9">
-        <v>209.711964252028</v>
-      </c>
-      <c r="I9">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="J9">
-        <v>0.2413913996455498</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="N9">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="O9">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="P9">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="Q9">
-        <v>63.91683724621819</v>
-      </c>
-      <c r="R9">
-        <v>63.91683724621819</v>
-      </c>
-      <c r="S9">
-        <v>0.005410716742057241</v>
-      </c>
-      <c r="T9">
-        <v>0.005410716742057241</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>687.9602253333333</v>
+      </c>
+      <c r="H11">
+        <v>2063.880676</v>
+      </c>
+      <c r="I11">
+        <v>0.751862020265869</v>
+      </c>
+      <c r="J11">
+        <v>0.8143361142115235</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0946895</v>
+      </c>
+      <c r="N11">
+        <v>0.189379</v>
+      </c>
+      <c r="O11">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P11">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q11">
+        <v>65.14260975670065</v>
+      </c>
+      <c r="R11">
+        <v>390.8556585402039</v>
+      </c>
+      <c r="S11">
+        <v>0.002298073128616742</v>
+      </c>
+      <c r="T11">
+        <v>0.001661042842257931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.095209</v>
+      </c>
+      <c r="I12">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J12">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N12">
+        <v>91.433426</v>
+      </c>
+      <c r="O12">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P12">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q12">
+        <v>21.28579300622599</v>
+      </c>
+      <c r="R12">
+        <v>191.572137056034</v>
+      </c>
+      <c r="S12">
+        <v>0.0007509111027575088</v>
+      </c>
+      <c r="T12">
+        <v>0.0008141356536104725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.095209</v>
+      </c>
+      <c r="I13">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J13">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.133237</v>
+      </c>
+      <c r="O13">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P13">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q13">
+        <v>0.03101770683699999</v>
+      </c>
+      <c r="R13">
+        <v>0.2791593615329999</v>
+      </c>
+      <c r="S13">
+        <v>1.094229397005229E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.186360358848399E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.095209</v>
+      </c>
+      <c r="I14">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J14">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00569</v>
+      </c>
+      <c r="N14">
+        <v>0.01707</v>
+      </c>
+      <c r="O14">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P14">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q14">
+        <v>0.003973913069999999</v>
+      </c>
+      <c r="R14">
+        <v>0.03576521762999999</v>
+      </c>
+      <c r="S14">
+        <v>1.401900058308072E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.519936003177959E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.095209</v>
+      </c>
+      <c r="I15">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J15">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.071067</v>
+      </c>
+      <c r="O15">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P15">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q15">
+        <v>0.249345468667</v>
+      </c>
+      <c r="R15">
+        <v>2.244109218003</v>
+      </c>
+      <c r="S15">
+        <v>8.796302810497079E-06</v>
+      </c>
+      <c r="T15">
+        <v>9.536926157679008E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6984029999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.095209</v>
+      </c>
+      <c r="I16">
+        <v>0.0007632747813077692</v>
+      </c>
+      <c r="J16">
+        <v>0.0008266971900855241</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0946895</v>
+      </c>
+      <c r="N16">
+        <v>0.189379</v>
+      </c>
+      <c r="O16">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P16">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q16">
+        <v>0.06613143086849999</v>
+      </c>
+      <c r="R16">
+        <v>0.3967885852109999</v>
+      </c>
+      <c r="S16">
+        <v>2.332956336927278E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.686256358206436E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.255552</v>
+      </c>
+      <c r="H17">
+        <v>0.766656</v>
+      </c>
+      <c r="I17">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J17">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N17">
+        <v>91.433426</v>
+      </c>
+      <c r="O17">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P17">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q17">
+        <v>7.788664960384</v>
+      </c>
+      <c r="R17">
+        <v>70.097984643456</v>
+      </c>
+      <c r="S17">
+        <v>0.0002747651916327492</v>
+      </c>
+      <c r="T17">
+        <v>0.000297899628941261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.255552</v>
+      </c>
+      <c r="H18">
+        <v>0.766656</v>
+      </c>
+      <c r="I18">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J18">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.133237</v>
+      </c>
+      <c r="O18">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P18">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q18">
+        <v>0.011349660608</v>
+      </c>
+      <c r="R18">
+        <v>0.102146945472</v>
+      </c>
+      <c r="S18">
+        <v>4.003884732217363E-07</v>
+      </c>
+      <c r="T18">
+        <v>4.341000288149192E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.255552</v>
+      </c>
+      <c r="H19">
+        <v>0.766656</v>
+      </c>
+      <c r="I19">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J19">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.00569</v>
+      </c>
+      <c r="N19">
+        <v>0.01707</v>
+      </c>
+      <c r="O19">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P19">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q19">
+        <v>0.00145409088</v>
+      </c>
+      <c r="R19">
+        <v>0.01308681792</v>
+      </c>
+      <c r="S19">
+        <v>5.129679621948136E-08</v>
+      </c>
+      <c r="T19">
+        <v>5.561583863244197E-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.255552</v>
+      </c>
+      <c r="H20">
+        <v>0.766656</v>
+      </c>
+      <c r="I20">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J20">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.071067</v>
+      </c>
+      <c r="O20">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P20">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q20">
+        <v>0.091237771328</v>
+      </c>
+      <c r="R20">
+        <v>0.821139941952</v>
+      </c>
+      <c r="S20">
+        <v>3.218647078875879E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.489647887318906E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.255552</v>
+      </c>
+      <c r="H21">
+        <v>0.766656</v>
+      </c>
+      <c r="I21">
+        <v>0.0002792891738906664</v>
+      </c>
+      <c r="J21">
+        <v>0.0003024960092106361</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0946895</v>
+      </c>
+      <c r="N21">
+        <v>0.189379</v>
+      </c>
+      <c r="O21">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P21">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q21">
+        <v>0.024198091104</v>
+      </c>
+      <c r="R21">
+        <v>0.145188546624</v>
+      </c>
+      <c r="S21">
+        <v>8.536499096001019E-07</v>
+      </c>
+      <c r="T21">
+        <v>6.170165146088593E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>210.592407</v>
+      </c>
+      <c r="H22">
+        <v>421.184814</v>
+      </c>
+      <c r="I22">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J22">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N22">
+        <v>91.433426</v>
+      </c>
+      <c r="O22">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P22">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q22">
+        <v>6418.395087198794</v>
+      </c>
+      <c r="R22">
+        <v>38510.37052319277</v>
+      </c>
+      <c r="S22">
+        <v>0.2264253970454425</v>
+      </c>
+      <c r="T22">
+        <v>0.1636598419712283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>210.592407</v>
+      </c>
+      <c r="H23">
+        <v>421.184814</v>
+      </c>
+      <c r="I23">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J23">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.133237</v>
+      </c>
+      <c r="O23">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P23">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q23">
+        <v>9.352900177153</v>
+      </c>
+      <c r="R23">
+        <v>56.117401062918</v>
+      </c>
+      <c r="S23">
+        <v>0.0003299476126612998</v>
+      </c>
+      <c r="T23">
+        <v>0.0002384855005293201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>210.592407</v>
+      </c>
+      <c r="H24">
+        <v>421.184814</v>
+      </c>
+      <c r="I24">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J24">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.00569</v>
+      </c>
+      <c r="N24">
+        <v>0.01707</v>
+      </c>
+      <c r="O24">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P24">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q24">
+        <v>1.19827079583</v>
+      </c>
+      <c r="R24">
+        <v>7.18962477498</v>
+      </c>
+      <c r="S24">
+        <v>4.227208469215299E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.055418160147327E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>210.592407</v>
+      </c>
+      <c r="H25">
+        <v>421.184814</v>
+      </c>
+      <c r="I25">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J25">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.071067</v>
+      </c>
+      <c r="O25">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P25">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q25">
+        <v>75.186192529423</v>
+      </c>
+      <c r="R25">
+        <v>451.117155176538</v>
+      </c>
+      <c r="S25">
+        <v>0.002652386346512609</v>
+      </c>
+      <c r="T25">
+        <v>0.001917139755439084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>210.592407</v>
+      </c>
+      <c r="H26">
+        <v>421.184814</v>
+      </c>
+      <c r="I26">
+        <v>0.2301534692691781</v>
+      </c>
+      <c r="J26">
+        <v>0.1661849974109953</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0946895</v>
+      </c>
+      <c r="N26">
+        <v>0.189379</v>
+      </c>
+      <c r="O26">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P26">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q26">
+        <v>19.9408897226265</v>
+      </c>
+      <c r="R26">
+        <v>79.763558890506</v>
+      </c>
+      <c r="S26">
+        <v>0.000703466179869529</v>
+      </c>
+      <c r="T26">
+        <v>0.0003389760021971533</v>
       </c>
     </row>
   </sheetData>
